--- a/ドキュメント/ガントチャート.xlsx
+++ b/ドキュメント/ガントチャート.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xryox\OneDrive\ドキュメント\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hirop\Desktop\OIC\三年次\卒業研究Ⅰ\deckofcardsapi\BlackJack\ドキュメント\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6850"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6855"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="35">
   <si>
     <t>ブラックジャック</t>
     <phoneticPr fontId="1"/>
@@ -200,16 +200,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>main部分作成</t>
-    <rPh sb="4" eb="6">
-      <t>ブブン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>難波</t>
     <rPh sb="0" eb="2">
       <t>ナンバ</t>
@@ -227,6 +217,41 @@
     <t>長瀬</t>
     <rPh sb="0" eb="2">
       <t>ナガセ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲームロジック作成</t>
+    <rPh sb="7" eb="9">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ルーレット作成</t>
+    <rPh sb="5" eb="7">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>難波</t>
+    <rPh sb="0" eb="2">
+      <t>ナンバ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対応中</t>
+    <rPh sb="0" eb="3">
+      <t>タイオウチュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>未定</t>
+    <rPh sb="0" eb="2">
+      <t>ミテイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -295,7 +320,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -318,13 +343,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -352,20 +414,35 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -647,31 +724,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z13"/>
+  <dimension ref="A1:Z14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:B13"/>
+      <selection activeCell="I11" sqref="I11:J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="8" width="3.58203125" customWidth="1"/>
-    <col min="9" max="9" width="3.6640625" customWidth="1"/>
-    <col min="10" max="14" width="3.58203125" customWidth="1"/>
-    <col min="15" max="15" width="3.6640625" customWidth="1"/>
-    <col min="16" max="26" width="3.58203125" customWidth="1"/>
+    <col min="1" max="5" width="3.625" customWidth="1"/>
+    <col min="6" max="6" width="7.25" customWidth="1"/>
+    <col min="7" max="26" width="3.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
       <c r="H1" s="10" t="s">
         <v>0</v>
       </c>
@@ -685,12 +760,12 @@
       <c r="P1" s="10"/>
       <c r="Q1" s="10"/>
       <c r="R1" s="10"/>
-      <c r="S1" s="9" t="s">
+      <c r="S1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="T1" s="9"/>
-      <c r="U1" s="9"/>
-      <c r="V1" s="11">
+      <c r="T1" s="12"/>
+      <c r="U1" s="12"/>
+      <c r="V1" s="13">
         <v>45538</v>
       </c>
       <c r="W1" s="10"/>
@@ -698,14 +773,14 @@
       <c r="Y1" s="10"/>
       <c r="Z1" s="10"/>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
       <c r="J2" s="10"/>
@@ -717,12 +792,12 @@
       <c r="P2" s="10"/>
       <c r="Q2" s="10"/>
       <c r="R2" s="10"/>
-      <c r="S2" s="9" t="s">
+      <c r="S2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="T2" s="9"/>
-      <c r="U2" s="9"/>
-      <c r="V2" s="11">
+      <c r="T2" s="12"/>
+      <c r="U2" s="12"/>
+      <c r="V2" s="13">
         <v>45548</v>
       </c>
       <c r="W2" s="10"/>
@@ -730,68 +805,68 @@
       <c r="Y2" s="10"/>
       <c r="Z2" s="10"/>
     </row>
-    <row r="4" spans="1:26" ht="14" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="9" t="s">
+    <row r="4" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9" t="s">
+      <c r="B4" s="12"/>
+      <c r="C4" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9" t="s">
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9" t="s">
+      <c r="H4" s="12"/>
+      <c r="I4" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9" t="s">
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
-      <c r="P4" s="9">
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12">
         <v>9</v>
       </c>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="9"/>
-      <c r="S4" s="9"/>
-      <c r="T4" s="9"/>
-      <c r="U4" s="9"/>
-      <c r="V4" s="9"/>
-      <c r="W4" s="9"/>
-      <c r="X4" s="9"/>
-      <c r="Y4" s="9"/>
-      <c r="Z4" s="9"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="12"/>
+      <c r="U4" s="12"/>
+      <c r="V4" s="12"/>
+      <c r="W4" s="12"/>
+      <c r="X4" s="12"/>
+      <c r="Y4" s="12"/>
+      <c r="Z4" s="12"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9" t="s">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A5" s="12"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9" t="s">
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9" t="s">
+      <c r="J5" s="12"/>
+      <c r="K5" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
       <c r="P5" s="1">
         <v>3</v>
       </c>
@@ -826,22 +901,22 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
       <c r="P6" s="1" t="s">
         <v>19</v>
       </c>
@@ -876,7 +951,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A7" s="10">
         <v>1</v>
       </c>
@@ -891,14 +966,14 @@
         <v>12</v>
       </c>
       <c r="H7" s="10"/>
-      <c r="I7" s="12">
+      <c r="I7" s="11">
         <v>45538</v>
       </c>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12">
+      <c r="J7" s="11"/>
+      <c r="K7" s="11">
         <v>45538</v>
       </c>
-      <c r="L7" s="12"/>
+      <c r="L7" s="11"/>
       <c r="M7" s="10" t="s">
         <v>17</v>
       </c>
@@ -916,7 +991,7 @@
       <c r="Y7" s="2"/>
       <c r="Z7" s="2"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A8" s="10">
         <v>2</v>
       </c>
@@ -931,12 +1006,12 @@
         <v>14</v>
       </c>
       <c r="H8" s="10"/>
-      <c r="I8" s="12">
+      <c r="I8" s="11">
         <v>45539</v>
       </c>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
       <c r="M8" s="10" t="s">
         <v>18</v>
       </c>
@@ -945,16 +1020,16 @@
       <c r="P8" s="2"/>
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
-      <c r="S8" s="2"/>
+      <c r="S8" s="4"/>
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
-      <c r="V8" s="2"/>
+      <c r="V8" s="4"/>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
       <c r="Y8" s="2"/>
       <c r="Z8" s="2"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A9" s="10">
         <v>3</v>
       </c>
@@ -969,14 +1044,14 @@
         <v>13</v>
       </c>
       <c r="H9" s="10"/>
-      <c r="I9" s="12">
+      <c r="I9" s="11">
         <v>45539</v>
       </c>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12">
+      <c r="J9" s="11"/>
+      <c r="K9" s="11">
         <v>45540</v>
       </c>
-      <c r="L9" s="12"/>
+      <c r="L9" s="11"/>
       <c r="M9" s="10" t="s">
         <v>17</v>
       </c>
@@ -994,7 +1069,7 @@
       <c r="Y9" s="2"/>
       <c r="Z9" s="2"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A10" s="10">
         <v>4</v>
       </c>
@@ -1009,14 +1084,14 @@
         <v>14</v>
       </c>
       <c r="H10" s="10"/>
-      <c r="I10" s="12">
+      <c r="I10" s="11">
         <v>45538</v>
       </c>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12">
+      <c r="J10" s="11"/>
+      <c r="K10" s="11">
         <v>45539</v>
       </c>
-      <c r="L10" s="12"/>
+      <c r="L10" s="11"/>
       <c r="M10" s="10" t="s">
         <v>17</v>
       </c>
@@ -1034,13 +1109,13 @@
       <c r="Y10" s="2"/>
       <c r="Z10" s="2"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A11" s="10">
         <v>5</v>
       </c>
       <c r="B11" s="10"/>
       <c r="C11" s="10" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
@@ -1049,12 +1124,12 @@
         <v>12</v>
       </c>
       <c r="H11" s="10"/>
-      <c r="I11" s="12">
+      <c r="I11" s="11">
         <v>45538</v>
       </c>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
       <c r="M11" s="10" t="s">
         <v>18</v>
       </c>
@@ -1063,16 +1138,16 @@
       <c r="P11" s="8"/>
       <c r="Q11" s="8"/>
       <c r="R11" s="8"/>
-      <c r="S11" s="7"/>
+      <c r="S11" s="8"/>
       <c r="T11" s="7"/>
       <c r="U11" s="7"/>
-      <c r="V11" s="7"/>
+      <c r="V11" s="8"/>
       <c r="W11" s="7"/>
       <c r="X11" s="7"/>
       <c r="Y11" s="7"/>
       <c r="Z11" s="7"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A12" s="10">
         <v>6</v>
       </c>
@@ -1084,18 +1159,20 @@
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
       <c r="G12" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H12" s="10"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
+      <c r="I12" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
       <c r="M12" s="10"/>
       <c r="N12" s="10"/>
       <c r="O12" s="10"/>
       <c r="P12" s="2"/>
-      <c r="Q12" s="13"/>
+      <c r="Q12" s="9"/>
       <c r="R12" s="2"/>
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
@@ -1106,54 +1183,113 @@
       <c r="Y12" s="2"/>
       <c r="Z12" s="2"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="10">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A13" s="14">
         <v>7</v>
       </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="H13" s="10"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="10"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="H13" s="15"/>
+      <c r="I13" s="17">
+        <v>45544</v>
+      </c>
+      <c r="J13" s="18"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="N13" s="16"/>
+      <c r="O13" s="15"/>
       <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
+      <c r="Q13" s="9"/>
       <c r="R13" s="2"/>
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
       <c r="U13" s="2"/>
-      <c r="V13" s="2"/>
+      <c r="V13" s="4"/>
       <c r="W13" s="2"/>
       <c r="X13" s="2"/>
       <c r="Y13" s="2"/>
       <c r="Z13" s="2"/>
     </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A14" s="10">
+        <v>8</v>
+      </c>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H14" s="10"/>
+      <c r="I14" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
+      <c r="V14" s="2"/>
+      <c r="W14" s="2"/>
+      <c r="X14" s="2"/>
+      <c r="Y14" s="2"/>
+      <c r="Z14" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="57">
-    <mergeCell ref="M12:O12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="G13:H13"/>
+  <mergeCells count="63">
+    <mergeCell ref="K13:L13"/>
     <mergeCell ref="I13:J13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="M13:O13"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="H1:R2"/>
+    <mergeCell ref="S1:U1"/>
+    <mergeCell ref="S2:U2"/>
+    <mergeCell ref="V1:Z1"/>
+    <mergeCell ref="V2:Z2"/>
+    <mergeCell ref="A4:B6"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:F6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="G4:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="I4:L4"/>
+    <mergeCell ref="I5:J6"/>
+    <mergeCell ref="K5:L6"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I9:J9"/>
     <mergeCell ref="P4:Z4"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="C11:F11"/>
@@ -1170,35 +1306,22 @@
     <mergeCell ref="M7:O7"/>
     <mergeCell ref="M8:O8"/>
     <mergeCell ref="M9:O9"/>
-    <mergeCell ref="M10:O10"/>
-    <mergeCell ref="I4:L4"/>
-    <mergeCell ref="I5:J6"/>
-    <mergeCell ref="K5:L6"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="G4:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="A4:B6"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:F6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A1:G2"/>
-    <mergeCell ref="H1:R2"/>
-    <mergeCell ref="S1:U1"/>
-    <mergeCell ref="S2:U2"/>
-    <mergeCell ref="V1:Z1"/>
-    <mergeCell ref="V2:Z2"/>
+    <mergeCell ref="M12:O12"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="M13:O13"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ドキュメント/ガントチャート.xlsx
+++ b/ドキュメント/ガントチャート.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xryox\OneDrive\ドキュメント\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xryox\OneDrive\ドキュメント\卒研課題\BlackJack\ドキュメント\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -352,20 +352,20 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -650,7 +650,7 @@
   <dimension ref="A1:Z13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:B13"/>
+      <selection activeCell="M8" sqref="M8:O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -663,15 +663,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
       <c r="H1" s="10" t="s">
         <v>0</v>
       </c>
@@ -685,12 +685,12 @@
       <c r="P1" s="10"/>
       <c r="Q1" s="10"/>
       <c r="R1" s="10"/>
-      <c r="S1" s="9" t="s">
+      <c r="S1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="T1" s="9"/>
-      <c r="U1" s="9"/>
-      <c r="V1" s="11">
+      <c r="T1" s="12"/>
+      <c r="U1" s="12"/>
+      <c r="V1" s="13">
         <v>45538</v>
       </c>
       <c r="W1" s="10"/>
@@ -699,13 +699,13 @@
       <c r="Z1" s="10"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
       <c r="J2" s="10"/>
@@ -717,12 +717,12 @@
       <c r="P2" s="10"/>
       <c r="Q2" s="10"/>
       <c r="R2" s="10"/>
-      <c r="S2" s="9" t="s">
+      <c r="S2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="T2" s="9"/>
-      <c r="U2" s="9"/>
-      <c r="V2" s="11">
+      <c r="T2" s="12"/>
+      <c r="U2" s="12"/>
+      <c r="V2" s="13">
         <v>45548</v>
       </c>
       <c r="W2" s="10"/>
@@ -731,67 +731,67 @@
       <c r="Z2" s="10"/>
     </row>
     <row r="4" spans="1:26" ht="14" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9" t="s">
+      <c r="B4" s="12"/>
+      <c r="C4" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9" t="s">
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9" t="s">
+      <c r="H4" s="12"/>
+      <c r="I4" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9" t="s">
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
-      <c r="P4" s="9">
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12">
         <v>9</v>
       </c>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="9"/>
-      <c r="S4" s="9"/>
-      <c r="T4" s="9"/>
-      <c r="U4" s="9"/>
-      <c r="V4" s="9"/>
-      <c r="W4" s="9"/>
-      <c r="X4" s="9"/>
-      <c r="Y4" s="9"/>
-      <c r="Z4" s="9"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="12"/>
+      <c r="U4" s="12"/>
+      <c r="V4" s="12"/>
+      <c r="W4" s="12"/>
+      <c r="X4" s="12"/>
+      <c r="Y4" s="12"/>
+      <c r="Z4" s="12"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9" t="s">
+      <c r="A5" s="12"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9" t="s">
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9" t="s">
+      <c r="J5" s="12"/>
+      <c r="K5" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
       <c r="P5" s="1">
         <v>3</v>
       </c>
@@ -827,21 +827,21 @@
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
       <c r="P6" s="1" t="s">
         <v>19</v>
       </c>
@@ -891,14 +891,14 @@
         <v>12</v>
       </c>
       <c r="H7" s="10"/>
-      <c r="I7" s="12">
+      <c r="I7" s="11">
         <v>45538</v>
       </c>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12">
+      <c r="J7" s="11"/>
+      <c r="K7" s="11">
         <v>45538</v>
       </c>
-      <c r="L7" s="12"/>
+      <c r="L7" s="11"/>
       <c r="M7" s="10" t="s">
         <v>17</v>
       </c>
@@ -931,21 +931,21 @@
         <v>14</v>
       </c>
       <c r="H8" s="10"/>
-      <c r="I8" s="12">
+      <c r="I8" s="11">
         <v>45539</v>
       </c>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
       <c r="M8" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N8" s="10"/>
       <c r="O8" s="10"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
-      <c r="S8" s="2"/>
+      <c r="S8" s="4"/>
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
       <c r="V8" s="2"/>
@@ -969,14 +969,14 @@
         <v>13</v>
       </c>
       <c r="H9" s="10"/>
-      <c r="I9" s="12">
+      <c r="I9" s="11">
         <v>45539</v>
       </c>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12">
+      <c r="J9" s="11"/>
+      <c r="K9" s="11">
         <v>45540</v>
       </c>
-      <c r="L9" s="12"/>
+      <c r="L9" s="11"/>
       <c r="M9" s="10" t="s">
         <v>17</v>
       </c>
@@ -1009,14 +1009,14 @@
         <v>14</v>
       </c>
       <c r="H10" s="10"/>
-      <c r="I10" s="12">
+      <c r="I10" s="11">
         <v>45538</v>
       </c>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12">
+      <c r="J10" s="11"/>
+      <c r="K10" s="11">
         <v>45539</v>
       </c>
-      <c r="L10" s="12"/>
+      <c r="L10" s="11"/>
       <c r="M10" s="10" t="s">
         <v>17</v>
       </c>
@@ -1049,12 +1049,12 @@
         <v>12</v>
       </c>
       <c r="H11" s="10"/>
-      <c r="I11" s="12">
+      <c r="I11" s="11">
         <v>45538</v>
       </c>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
       <c r="M11" s="10" t="s">
         <v>18</v>
       </c>
@@ -1087,15 +1087,15 @@
         <v>28</v>
       </c>
       <c r="H12" s="10"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
       <c r="M12" s="10"/>
       <c r="N12" s="10"/>
       <c r="O12" s="10"/>
       <c r="P12" s="2"/>
-      <c r="Q12" s="13"/>
+      <c r="Q12" s="9"/>
       <c r="R12" s="2"/>
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
@@ -1121,10 +1121,10 @@
         <v>30</v>
       </c>
       <c r="H13" s="10"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
       <c r="M13" s="10"/>
       <c r="N13" s="10"/>
       <c r="O13" s="10"/>
@@ -1142,18 +1142,35 @@
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="M12:O12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="M13:O13"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="H1:R2"/>
+    <mergeCell ref="S1:U1"/>
+    <mergeCell ref="S2:U2"/>
+    <mergeCell ref="V1:Z1"/>
+    <mergeCell ref="V2:Z2"/>
+    <mergeCell ref="A4:B6"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:F6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="G4:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="I4:L4"/>
+    <mergeCell ref="I5:J6"/>
+    <mergeCell ref="K5:L6"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I9:J9"/>
     <mergeCell ref="P4:Z4"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="C11:F11"/>
@@ -1170,35 +1187,18 @@
     <mergeCell ref="M7:O7"/>
     <mergeCell ref="M8:O8"/>
     <mergeCell ref="M9:O9"/>
-    <mergeCell ref="M10:O10"/>
-    <mergeCell ref="I4:L4"/>
-    <mergeCell ref="I5:J6"/>
-    <mergeCell ref="K5:L6"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="G4:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="A4:B6"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:F6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A1:G2"/>
-    <mergeCell ref="H1:R2"/>
-    <mergeCell ref="S1:U1"/>
-    <mergeCell ref="S2:U2"/>
-    <mergeCell ref="V1:Z1"/>
-    <mergeCell ref="V2:Z2"/>
+    <mergeCell ref="M12:O12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="M13:O13"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:L12"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
